--- a/시그널뷰_관련테마.xlsx
+++ b/시그널뷰_관련테마.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김정훈\재테크\주식\상한가, 거래량1000만 종목나열\상천\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E5BF09-EE07-4AFA-9654-C2072855E15B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305B2E12-6947-48E2-8A5F-696E3E4E7C0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9302,8 +9302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1052"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
